--- a/peer_review.xlsx
+++ b/peer_review.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\peer_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\peer_rev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7188" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
   </bookViews>
   <sheets>
     <sheet name="Self responses" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="452">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1552,7 +1552,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1585,6 +1585,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1603,10 +1610,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1657,8 +1665,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1875,11 +1889,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1930,12 +1944,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45141.608290567128</v>
+        <v>45141.608287037037</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3">
@@ -1967,6 +1981,26 @@
       </c>
       <c r="M2" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>45141.608287037037</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1981,9 +2015,9 @@
   </sheetPr>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2590,7 @@
       <c r="A19" s="2">
         <v>45138.400453692127</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -5772,6 +5806,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C111" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/peer_review.xlsx
+++ b/peer_review.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Self responses" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="452">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1891,7 +1891,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -1901,7 +1901,7 @@
     <col min="1" max="19" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="198" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45141.608287037037</v>
       </c>
@@ -2015,9 +2015,9 @@
   </sheetPr>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2120,6 +2120,9 @@
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="Q3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -2146,6 +2149,9 @@
       <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="Q4" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2516,7 +2522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45133.746445752317</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45138.396125266205</v>
       </c>
@@ -2585,8 +2591,11 @@
       <c r="L18" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45138.400453692127</v>
       </c>
@@ -2623,8 +2632,11 @@
       <c r="L19" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45138.639041168979</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45138.682496041671</v>
       </c>
@@ -2697,7 +2709,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45138.68633113426</v>
       </c>
@@ -2735,7 +2747,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45138.68881206018</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45138.691770520833</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45139.013923240738</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45139.017098356482</v>
       </c>
@@ -2866,7 +2878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45139.02032891204</v>
       </c>
@@ -2892,7 +2904,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45139.717305729166</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45140.66548059028</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45140.66610425926</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45141.459776678239</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45141.653222881941</v>
       </c>

--- a/peer_review.xlsx
+++ b/peer_review.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="452">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2015,9 +2015,9 @@
   </sheetPr>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2062,7 @@
       <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="M1" s="10" t="s">
         <v>450</v>
       </c>
     </row>
@@ -2091,6 +2091,9 @@
       <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="M2" t="s">
+        <v>451</v>
+      </c>
       <c r="Q2" t="s">
         <v>451</v>
       </c>
@@ -2120,6 +2123,9 @@
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="M3" t="s">
+        <v>451</v>
+      </c>
       <c r="Q3" t="s">
         <v>451</v>
       </c>
@@ -2149,6 +2155,9 @@
       <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="M4" t="s">
+        <v>451</v>
+      </c>
       <c r="Q4" t="s">
         <v>451</v>
       </c>
@@ -2178,6 +2187,9 @@
       <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="M5" t="s">
+        <v>451</v>
+      </c>
       <c r="Q5" t="s">
         <v>451</v>
       </c>
@@ -2207,6 +2219,9 @@
       <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="M6" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2245,6 +2260,9 @@
       <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2271,6 +2289,9 @@
       <c r="L8" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="M8" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2309,6 +2330,9 @@
       <c r="L9" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="M9" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2347,6 +2371,9 @@
       <c r="L10" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="M10" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2385,6 +2412,9 @@
       <c r="L11" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="M11" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2417,6 +2447,9 @@
       <c r="L12" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="M12" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2443,6 +2476,9 @@
       <c r="L13" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="M13" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2469,6 +2505,9 @@
       <c r="L14" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2495,6 +2534,9 @@
       <c r="L15" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="M15" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2521,6 +2563,9 @@
       <c r="L16" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="M16" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2553,6 +2598,9 @@
       <c r="L17" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="M17" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2591,6 +2639,9 @@
       <c r="L18" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="M18" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="Q18" t="s">
         <v>451</v>
       </c>
@@ -2632,6 +2683,9 @@
       <c r="L19" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="M19" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="Q19" t="s">
         <v>451</v>
       </c>
@@ -2670,6 +2724,9 @@
       <c r="L20" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="M20" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2708,6 +2765,9 @@
       <c r="L21" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="M21" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2746,6 +2806,9 @@
       <c r="L22" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="M22" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2784,6 +2847,9 @@
       <c r="L23" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="M23" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2819,6 +2885,9 @@
       <c r="L24" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="M24" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2845,6 +2914,9 @@
       <c r="L25" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="M25" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2877,6 +2949,9 @@
       <c r="L26" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="M26" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3005,6 +3080,9 @@
       <c r="L30" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="M30" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -3082,7 +3160,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45141.666489884257</v>
       </c>
@@ -3119,8 +3197,11 @@
       <c r="L33" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45141.686656724538</v>
       </c>
@@ -3151,8 +3232,11 @@
       <c r="L34" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45141.689148668986</v>
       </c>
@@ -3189,8 +3273,11 @@
       <c r="L35" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45141.818051458336</v>
       </c>
@@ -3222,7 +3309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45141.823757557868</v>
       </c>
@@ -3254,7 +3341,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45141.825101898146</v>
       </c>
@@ -3280,7 +3367,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45141.875495891203</v>
       </c>
@@ -3318,7 +3405,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45141.885222997684</v>
       </c>
@@ -3355,8 +3442,11 @@
       <c r="L40" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45141.889153020835</v>
       </c>
@@ -3387,8 +3477,11 @@
       <c r="L41" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45141.890029560185</v>
       </c>
@@ -3413,8 +3506,11 @@
       <c r="L42" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45141.943389652777</v>
       </c>
@@ -3452,7 +3548,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45141.945824456023</v>
       </c>
@@ -3484,7 +3580,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45141.947382326391</v>
       </c>
@@ -3522,7 +3618,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45141.948445324073</v>
       </c>
@@ -3557,7 +3653,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45141.951582754627</v>
       </c>
@@ -3595,7 +3691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45141.957572500003</v>
       </c>
@@ -4142,7 +4238,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45142.014149432871</v>
       </c>
@@ -4180,7 +4276,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45142.019138402778</v>
       </c>
@@ -4218,7 +4314,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45142.038083263891</v>
       </c>
@@ -4256,7 +4352,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45142.04820232639</v>
       </c>
@@ -4294,7 +4390,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45142.053524386574</v>
       </c>
@@ -4332,7 +4428,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45142.660613495369</v>
       </c>
@@ -4370,7 +4466,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45142.70701471065</v>
       </c>
@@ -4408,7 +4504,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45142.735830219906</v>
       </c>
@@ -4446,7 +4542,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45142.740644143516</v>
       </c>
@@ -4483,8 +4579,11 @@
       <c r="L73" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45142.75083261574</v>
       </c>
@@ -4522,7 +4621,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45142.755395601853</v>
       </c>
@@ -4560,7 +4659,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45142.783388703705</v>
       </c>
@@ -4595,7 +4694,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45142.792768819447</v>
       </c>
@@ -4627,7 +4726,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45142.799806886571</v>
       </c>
@@ -4656,7 +4755,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45142.906356724532</v>
       </c>
@@ -4682,7 +4781,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45142.94624075231</v>
       </c>

--- a/peer_review.xlsx
+++ b/peer_review.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="471">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1542,6 +1542,63 @@
   </si>
   <si>
     <t>hi</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>ghh</t>
+  </si>
+  <si>
+    <t>hb</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>mj</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>jn</t>
+  </si>
+  <si>
+    <t>bh</t>
+  </si>
+  <si>
+    <t>kj</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1987,7 +2044,7 @@
       <c r="A3" s="25">
         <v>45141.608287037037</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D3">
@@ -2004,6 +2061,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2016,8 +2076,8 @@
   <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2065,6 +2125,9 @@
       <c r="M1" s="10" t="s">
         <v>450</v>
       </c>
+      <c r="N1" s="10" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2094,6 +2157,9 @@
       <c r="M2" t="s">
         <v>451</v>
       </c>
+      <c r="N2" t="s">
+        <v>453</v>
+      </c>
       <c r="Q2" t="s">
         <v>451</v>
       </c>
@@ -2126,6 +2192,9 @@
       <c r="M3" t="s">
         <v>451</v>
       </c>
+      <c r="N3" t="s">
+        <v>454</v>
+      </c>
       <c r="Q3" t="s">
         <v>451</v>
       </c>
@@ -2158,6 +2227,9 @@
       <c r="M4" t="s">
         <v>451</v>
       </c>
+      <c r="N4" t="s">
+        <v>455</v>
+      </c>
       <c r="Q4" t="s">
         <v>451</v>
       </c>
@@ -2190,6 +2262,9 @@
       <c r="M5" t="s">
         <v>451</v>
       </c>
+      <c r="N5" t="s">
+        <v>456</v>
+      </c>
       <c r="Q5" t="s">
         <v>451</v>
       </c>
@@ -2222,6 +2297,9 @@
       <c r="M6" t="s">
         <v>451</v>
       </c>
+      <c r="N6" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2263,6 +2341,9 @@
       <c r="M7" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N7" s="3" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2292,6 +2373,9 @@
       <c r="M8" t="s">
         <v>451</v>
       </c>
+      <c r="N8" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2333,6 +2417,9 @@
       <c r="M9" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N9" s="3" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2374,6 +2461,9 @@
       <c r="M10" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N10" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2415,6 +2505,9 @@
       <c r="M11" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N11" s="3" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2450,6 +2543,9 @@
       <c r="M12" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N12" s="3" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2479,6 +2575,9 @@
       <c r="M13" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N13" s="3" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2508,6 +2607,9 @@
       <c r="M14" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N14" s="3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2537,6 +2639,9 @@
       <c r="M15" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N15" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2566,6 +2671,9 @@
       <c r="M16" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N16" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2601,6 +2709,9 @@
       <c r="M17" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N17" s="3" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2642,6 +2753,9 @@
       <c r="M18" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N18" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="Q18" t="s">
         <v>451</v>
       </c>
@@ -2686,6 +2800,9 @@
       <c r="M19" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N19" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="Q19" t="s">
         <v>451</v>
       </c>
@@ -2727,6 +2844,9 @@
       <c r="M20" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N20" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2768,6 +2888,9 @@
       <c r="M21" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N21" s="3" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2809,6 +2932,9 @@
       <c r="M22" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N22" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2850,6 +2976,9 @@
       <c r="M23" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N23" s="3" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2888,6 +3017,9 @@
       <c r="M24" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N24" s="3" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2917,6 +3049,9 @@
       <c r="M25" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="N25" s="3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2951,6 +3086,9 @@
       </c>
       <c r="M26" s="3" t="s">
         <v>451</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">

--- a/peer_review.xlsx
+++ b/peer_review.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
   </bookViews>
   <sheets>
     <sheet name="Self responses" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="471">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1946,11 +1946,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1958,7 +1958,7 @@
     <col min="1" max="19" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,8 +1998,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="198" x14ac:dyDescent="0.25">
+      <c r="N1" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="198" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45141.608287037037</v>
       </c>
@@ -2039,8 +2042,11 @@
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>45141.608287037037</v>
       </c>
@@ -2075,7 +2081,7 @@
   </sheetPr>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
